--- a/biology/Médecine/Enthésiopathie/Enthésiopathie.xlsx
+++ b/biology/Médecine/Enthésiopathie/Enthésiopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enth%C3%A9siopathie</t>
+          <t>Enthésiopathie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une enthésiopathie ou enthésopathie est une inflammation d'une enthèse. Les enthèses sont les zones où s'insèrent sur les os les capsules articulaires, tendons et ligaments.
 L'origine de cette pathologie peut être traumatique (par exemple accident de voiture avec coup du lapin) ou dégénératif dans le cadre de maladies articulaires chroniques évolutives ou non (du genre polyarthrite rhumatoïde ou spondylarthrite ankylosante).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enth%C3%A9siopathie</t>
+          <t>Enthésiopathie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Symptôme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Douleur au niveau de l'insertion des tendons et des ligaments, augmentée à la palpation
 Douleur au niveau de l'insertion des tendons à l'étirement
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enth%C3%A9siopathie</t>
+          <t>Enthésiopathie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anti-inflammatoires : mais peu efficaces
 Traitement par ondes de choc radiales :
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enth%C3%A9siopathie</t>
+          <t>Enthésiopathie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Types d'enthésiopathies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Épicondylite
  Portail de la médecine                     </t>
